--- a/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>-36,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-75,35%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,11%</t>
+          <t>-50,53%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,02</t>
+          <t>-2,43; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,24</t>
+          <t>-3,33; 1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,24</t>
+          <t>-1,1; 2,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 3,99</t>
+          <t>-8,61; 3,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,91; 95,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,57</t>
+          <t>-74,6; 970,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,62%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>-75,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>-50,11%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,0</t>
+          <t>-1,36; 2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,04</t>
+          <t>-0,82; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,53</t>
+          <t>-4,13; -0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 3,33</t>
+          <t>-11,62; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-84,91; 95,42</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 970,85</t>
+          <t>-100,0; 28,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">

--- a/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>-60,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>189,31%</t>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,91</t>
+          <t>-2,31; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,43</t>
+          <t>-2,81; 0,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 12,26</t>
+          <t>-4,54; 8,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-56,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,62%</t>
+          <t>-45,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,0</t>
+          <t>-1,49; 0,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,04</t>
+          <t>-2,61; 0,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,53</t>
+          <t>-0,84; 3,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 3,33</t>
+          <t>-8,86; 6,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 95,42</t>
+          <t>-100,0; 149,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 970,85</t>
+          <t>-65,07; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>131,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-75,35%</t>
+          <t>243,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-50,11%</t>
+          <t>-47,78%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,02</t>
+          <t>-1,78; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,24</t>
+          <t>-1,15; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,24</t>
+          <t>-0,45; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 3,99</t>
+          <t>-12,07; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,5%</t>
+          <t>-85,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>-57,74%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,85</t>
+          <t>-1,53; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,55</t>
+          <t>-2,92; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,87</t>
+          <t>-6,9; -0,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,32</t>
+          <t>-14,73; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,8; 389,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,59; 98,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 126,33</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 116,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-18,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-34,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 0,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 0,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 0,76</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 2,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-72,24; 101,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-65,72; 95,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-89,86; 141,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,0</t>
+          <t>-2,11; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,43</t>
+          <t>-3,28; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 8,21</t>
+          <t>-4,57; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,49</t>
+          <t>-1,68; 0,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,71</t>
+          <t>-2,54; 0,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,4</t>
+          <t>-0,92; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 6,94</t>
+          <t>-7,67; 7,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 149,8</t>
+          <t>-100,0; 164,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,07; —</t>
+          <t>-76,42; 1214,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,48</t>
+          <t>-1,72; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,13</t>
+          <t>-1,07; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,86</t>
+          <t>-0,48; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 5,37</t>
+          <t>-11,88; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,35</t>
+          <t>-1,42; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,0</t>
+          <t>-2,65; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,73</t>
+          <t>-6,6; -0,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 4,24</t>
+          <t>-14,62; 3,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,82</t>
+          <t>-0,74; 0,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,59</t>
+          <t>-1,14; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,76</t>
+          <t>-1,36; 0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,19</t>
+          <t>-6,14; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,85; 345,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 101,19</t>
+          <t>-72,22; 97,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 95,82</t>
+          <t>-66,94; 112,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 141,94</t>
+          <t>-87,11; 134,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,0</t>
+          <t>-2,96; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,72</t>
+          <t>-2,91; 0,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 8,36</t>
+          <t>-4,38; 10,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,26</t>
+          <t>-1,77; 0,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,78</t>
+          <t>-2,54; 0,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,24</t>
+          <t>-0,85; 3,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 7,73</t>
+          <t>-7,51; 8,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 164,49</t>
+          <t>-100,0; 160,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 1214,96</t>
+          <t>-90,37; 978,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-47,78%</t>
+          <t>-51,66%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,87</t>
+          <t>-1,79; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,24</t>
+          <t>-1,04; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,73</t>
+          <t>-0,47; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 5,2</t>
+          <t>-12,87; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-57,74%</t>
+          <t>-55,13%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,78</t>
+          <t>-1,42; 1,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,0</t>
+          <t>-2,52; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,49</t>
+          <t>-6,84; -0,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 3,04</t>
+          <t>-14,52; 4,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,99%</t>
+          <t>-33,54%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,74</t>
+          <t>-0,66; 0,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,57</t>
+          <t>-1,15; 0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,88</t>
+          <t>-1,32; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,48</t>
+          <t>-6,51; 2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 345,96</t>
+          <t>-76,8; 389,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 97,87</t>
+          <t>-73,59; 98,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 112,85</t>
+          <t>-65,93; 126,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,11; 134,37</t>
+          <t>-89,06; 125,86</t>
         </is>
       </c>
     </row>
